--- a/natmiOut/OldD4/LR-pairs_lrc2p/Angptl2-Itgb1.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Angptl2-Itgb1.xlsx
@@ -534,52 +534,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>2.8308434055199</v>
+        <v>3.402403</v>
       </c>
       <c r="H2">
-        <v>2.8308434055199</v>
+        <v>10.207209</v>
       </c>
       <c r="I2">
-        <v>0.02992460753882211</v>
+        <v>0.03316898713485919</v>
       </c>
       <c r="J2">
-        <v>0.02992460753882211</v>
+        <v>0.03864740487441061</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>123.743127939701</v>
+        <v>138.2190853333333</v>
       </c>
       <c r="N2">
-        <v>123.743127939701</v>
+        <v>414.657256</v>
       </c>
       <c r="O2">
-        <v>0.2112226641987577</v>
+        <v>0.2249223651785973</v>
       </c>
       <c r="P2">
-        <v>0.2112226641987577</v>
+        <v>0.2476599003709697</v>
       </c>
       <c r="Q2">
-        <v>350.2974177065079</v>
+        <v>470.2770305953893</v>
       </c>
       <c r="R2">
-        <v>350.2974177065079</v>
+        <v>4232.493275358504</v>
       </c>
       <c r="S2">
-        <v>0.006320755329452235</v>
+        <v>0.007460447036950996</v>
       </c>
       <c r="T2">
-        <v>0.006320755329452235</v>
+        <v>0.009571412440793061</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,52 +596,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>2.8308434055199</v>
+        <v>3.402403</v>
       </c>
       <c r="H3">
-        <v>2.8308434055199</v>
+        <v>10.207209</v>
       </c>
       <c r="I3">
-        <v>0.02992460753882211</v>
+        <v>0.03316898713485919</v>
       </c>
       <c r="J3">
-        <v>0.02992460753882211</v>
+        <v>0.03864740487441061</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>138.588220038292</v>
+        <v>147.91433</v>
       </c>
       <c r="N3">
-        <v>138.588220038292</v>
+        <v>443.74299</v>
       </c>
       <c r="O3">
-        <v>0.2365624140139416</v>
+        <v>0.2406993279341593</v>
       </c>
       <c r="P3">
-        <v>0.2365624140139416</v>
+        <v>0.2650317656414439</v>
       </c>
       <c r="Q3">
-        <v>392.3215487781398</v>
+        <v>503.2641601349899</v>
       </c>
       <c r="R3">
-        <v>392.3215487781398</v>
+        <v>4529.377441214909</v>
       </c>
       <c r="S3">
-        <v>0.007079037397803554</v>
+        <v>0.007983752911617384</v>
       </c>
       <c r="T3">
-        <v>0.007079037397803554</v>
+        <v>0.01024278995132479</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,52 +658,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>2.8308434055199</v>
+        <v>3.402403</v>
       </c>
       <c r="H4">
-        <v>2.8308434055199</v>
+        <v>10.207209</v>
       </c>
       <c r="I4">
-        <v>0.02992460753882211</v>
+        <v>0.03316898713485919</v>
       </c>
       <c r="J4">
-        <v>0.02992460753882211</v>
+        <v>0.03864740487441061</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>71.29989178220509</v>
+        <v>74.27261733333333</v>
       </c>
       <c r="N4">
-        <v>71.29989178220509</v>
+        <v>222.817852</v>
       </c>
       <c r="O4">
-        <v>0.1217049653590392</v>
+        <v>0.1208629960061633</v>
       </c>
       <c r="P4">
-        <v>0.1217049653590392</v>
+        <v>0.1330811078998542</v>
       </c>
       <c r="Q4">
-        <v>201.8388284659378</v>
+        <v>252.7053760327853</v>
       </c>
       <c r="R4">
-        <v>201.8388284659378</v>
+        <v>2274.348384295068</v>
       </c>
       <c r="S4">
-        <v>0.003641973323895189</v>
+        <v>0.00400890315960897</v>
       </c>
       <c r="T4">
-        <v>0.003641973323895189</v>
+        <v>0.005143239458140789</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,52 +720,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>2.8308434055199</v>
+        <v>3.402403</v>
       </c>
       <c r="H5">
-        <v>2.8308434055199</v>
+        <v>10.207209</v>
       </c>
       <c r="I5">
-        <v>0.02992460753882211</v>
+        <v>0.03316898713485919</v>
       </c>
       <c r="J5">
-        <v>0.02992460753882211</v>
+        <v>0.03864740487441061</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>84.8268215520668</v>
+        <v>84.85695366666668</v>
       </c>
       <c r="N5">
-        <v>84.8268215520668</v>
+        <v>254.570861</v>
       </c>
       <c r="O5">
-        <v>0.1447946851034113</v>
+        <v>0.138086767645209</v>
       </c>
       <c r="P5">
-        <v>0.1447946851034113</v>
+        <v>0.1520460408212704</v>
       </c>
       <c r="Q5">
-        <v>240.1314484018816</v>
+        <v>288.7175537263277</v>
       </c>
       <c r="R5">
-        <v>240.1314484018816</v>
+        <v>2598.457983536949</v>
       </c>
       <c r="S5">
-        <v>0.004332924125426916</v>
+        <v>0.004580198219518228</v>
       </c>
       <c r="T5">
-        <v>0.004332924125426916</v>
+        <v>0.005876184899170802</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,52 +782,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>2.8308434055199</v>
+        <v>3.402403</v>
       </c>
       <c r="H6">
-        <v>2.8308434055199</v>
+        <v>10.207209</v>
       </c>
       <c r="I6">
-        <v>0.02992460753882211</v>
+        <v>0.03316898713485919</v>
       </c>
       <c r="J6">
-        <v>0.02992460753882211</v>
+        <v>0.03864740487441061</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>167.384032901926</v>
+        <v>169.2560955</v>
       </c>
       <c r="N6">
-        <v>167.384032901926</v>
+        <v>338.512191</v>
       </c>
       <c r="O6">
-        <v>0.2857152713248502</v>
+        <v>0.275428543235871</v>
       </c>
       <c r="P6">
-        <v>0.2857152713248502</v>
+        <v>0.2021811852664618</v>
       </c>
       <c r="Q6">
-        <v>473.8379857297432</v>
+        <v>575.8774470974865</v>
       </c>
       <c r="R6">
-        <v>473.8379857297432</v>
+        <v>3455.264682584919</v>
       </c>
       <c r="S6">
-        <v>0.008549917362244216</v>
+        <v>0.009135685807163615</v>
       </c>
       <c r="T6">
-        <v>0.008549917362244216</v>
+        <v>0.00781377812498117</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,52 +844,52 @@
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>45.1378424541274</v>
+        <v>49.50633933333334</v>
       </c>
       <c r="H7">
-        <v>45.1378424541274</v>
+        <v>148.519018</v>
       </c>
       <c r="I7">
-        <v>0.4771483360595412</v>
+        <v>0.4826221739286343</v>
       </c>
       <c r="J7">
-        <v>0.4771483360595412</v>
+        <v>0.5623353671112131</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>123.743127939701</v>
+        <v>138.2190853333333</v>
       </c>
       <c r="N7">
-        <v>123.743127939701</v>
+        <v>414.657256</v>
       </c>
       <c r="O7">
-        <v>0.2112226641987577</v>
+        <v>0.2249223651785973</v>
       </c>
       <c r="P7">
-        <v>0.2112226641987577</v>
+        <v>0.2476599003709697</v>
       </c>
       <c r="Q7">
-        <v>5585.497813723155</v>
+        <v>6842.720940854957</v>
       </c>
       <c r="R7">
-        <v>5585.497813723155</v>
+        <v>61584.48846769462</v>
       </c>
       <c r="S7">
-        <v>0.1007845427605005</v>
+        <v>0.1085525208476648</v>
       </c>
       <c r="T7">
-        <v>0.1007845427605005</v>
+        <v>0.1392679209938357</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,52 +906,52 @@
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>45.1378424541274</v>
+        <v>49.50633933333334</v>
       </c>
       <c r="H8">
-        <v>45.1378424541274</v>
+        <v>148.519018</v>
       </c>
       <c r="I8">
-        <v>0.4771483360595412</v>
+        <v>0.4826221739286343</v>
       </c>
       <c r="J8">
-        <v>0.4771483360595412</v>
+        <v>0.5623353671112131</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>138.588220038292</v>
+        <v>147.91433</v>
       </c>
       <c r="N8">
-        <v>138.588220038292</v>
+        <v>443.74299</v>
       </c>
       <c r="O8">
-        <v>0.2365624140139416</v>
+        <v>0.2406993279341593</v>
       </c>
       <c r="P8">
-        <v>0.2365624140139416</v>
+        <v>0.2650317656414439</v>
       </c>
       <c r="Q8">
-        <v>6255.573242086367</v>
+        <v>7322.697013242646</v>
       </c>
       <c r="R8">
-        <v>6255.573242086367</v>
+        <v>65904.27311918382</v>
       </c>
       <c r="S8">
-        <v>0.1128753622209805</v>
+        <v>0.1161668329107452</v>
       </c>
       <c r="T8">
-        <v>0.1128753622209805</v>
+        <v>0.1490367352281143</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,52 +968,52 @@
         <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>45.1378424541274</v>
+        <v>49.50633933333334</v>
       </c>
       <c r="H9">
-        <v>45.1378424541274</v>
+        <v>148.519018</v>
       </c>
       <c r="I9">
-        <v>0.4771483360595412</v>
+        <v>0.4826221739286343</v>
       </c>
       <c r="J9">
-        <v>0.4771483360595412</v>
+        <v>0.5623353671112131</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>71.29989178220509</v>
+        <v>74.27261733333333</v>
       </c>
       <c r="N9">
-        <v>71.29989178220509</v>
+        <v>222.817852</v>
       </c>
       <c r="O9">
-        <v>0.1217049653590392</v>
+        <v>0.1208629960061633</v>
       </c>
       <c r="P9">
-        <v>0.1217049653590392</v>
+        <v>0.1330811078998542</v>
       </c>
       <c r="Q9">
-        <v>3218.323282261506</v>
+        <v>3676.965396878815</v>
       </c>
       <c r="R9">
-        <v>3218.323282261506</v>
+        <v>33092.68857190934</v>
       </c>
       <c r="S9">
-        <v>0.05807132171124967</v>
+        <v>0.05833116188002239</v>
       </c>
       <c r="T9">
-        <v>0.05807132171124967</v>
+        <v>0.07483621366643148</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,52 +1030,52 @@
         <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>45.1378424541274</v>
+        <v>49.50633933333334</v>
       </c>
       <c r="H10">
-        <v>45.1378424541274</v>
+        <v>148.519018</v>
       </c>
       <c r="I10">
-        <v>0.4771483360595412</v>
+        <v>0.4826221739286343</v>
       </c>
       <c r="J10">
-        <v>0.4771483360595412</v>
+        <v>0.5623353671112131</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>84.8268215520668</v>
+        <v>84.85695366666668</v>
       </c>
       <c r="N10">
-        <v>84.8268215520668</v>
+        <v>254.570861</v>
       </c>
       <c r="O10">
-        <v>0.1447946851034113</v>
+        <v>0.138086767645209</v>
       </c>
       <c r="P10">
-        <v>0.1447946851034113</v>
+        <v>0.1520460408212704</v>
       </c>
       <c r="Q10">
-        <v>3828.89970710157</v>
+        <v>4200.957143014945</v>
       </c>
       <c r="R10">
-        <v>3828.89970710157</v>
+        <v>37808.61428713451</v>
       </c>
       <c r="S10">
-        <v>0.06908854306735795</v>
+        <v>0.06664373599170897</v>
       </c>
       <c r="T10">
-        <v>0.06908854306735795</v>
+        <v>0.08550086618303561</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,52 +1092,52 @@
         <v>24</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>45.1378424541274</v>
+        <v>49.50633933333334</v>
       </c>
       <c r="H11">
-        <v>45.1378424541274</v>
+        <v>148.519018</v>
       </c>
       <c r="I11">
-        <v>0.4771483360595412</v>
+        <v>0.4826221739286343</v>
       </c>
       <c r="J11">
-        <v>0.4771483360595412</v>
+        <v>0.5623353671112131</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>167.384032901926</v>
+        <v>169.2560955</v>
       </c>
       <c r="N11">
-        <v>167.384032901926</v>
+        <v>338.512191</v>
       </c>
       <c r="O11">
-        <v>0.2857152713248502</v>
+        <v>0.275428543235871</v>
       </c>
       <c r="P11">
-        <v>0.2857152713248502</v>
+        <v>0.2021811852664618</v>
       </c>
       <c r="Q11">
-        <v>7555.354106463613</v>
+        <v>8379.249698058075</v>
       </c>
       <c r="R11">
-        <v>7555.354106463613</v>
+        <v>50275.49818834845</v>
       </c>
       <c r="S11">
-        <v>0.1363285662994526</v>
+        <v>0.1329279222984929</v>
       </c>
       <c r="T11">
-        <v>0.1363285662994526</v>
+        <v>0.113693631039796</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,52 +1154,52 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>2.48643395509596</v>
+        <v>2.620102333333334</v>
       </c>
       <c r="H12">
-        <v>2.48643395509596</v>
+        <v>7.860307000000001</v>
       </c>
       <c r="I12">
-        <v>0.02628388420651013</v>
+        <v>0.02554257699230452</v>
       </c>
       <c r="J12">
-        <v>0.02628388420651013</v>
+        <v>0.0297613644499847</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>123.743127939701</v>
+        <v>138.2190853333333</v>
       </c>
       <c r="N12">
-        <v>123.743127939701</v>
+        <v>414.657256</v>
       </c>
       <c r="O12">
-        <v>0.2112226641987577</v>
+        <v>0.2249223651785973</v>
       </c>
       <c r="P12">
-        <v>0.2112226641987577</v>
+        <v>0.2476599003709697</v>
       </c>
       <c r="Q12">
-        <v>307.6791150190562</v>
+        <v>362.1481479930658</v>
       </c>
       <c r="R12">
-        <v>307.6791150190562</v>
+        <v>3259.333331937592</v>
       </c>
       <c r="S12">
-        <v>0.005551752047590719</v>
+        <v>0.005745096829865556</v>
       </c>
       <c r="T12">
-        <v>0.005551752047590719</v>
+        <v>0.007370696554587331</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,52 +1216,52 @@
         <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>2.48643395509596</v>
+        <v>2.620102333333334</v>
       </c>
       <c r="H13">
-        <v>2.48643395509596</v>
+        <v>7.860307000000001</v>
       </c>
       <c r="I13">
-        <v>0.02628388420651013</v>
+        <v>0.02554257699230452</v>
       </c>
       <c r="J13">
-        <v>0.02628388420651013</v>
+        <v>0.0297613644499847</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>138.588220038292</v>
+        <v>147.91433</v>
       </c>
       <c r="N13">
-        <v>138.588220038292</v>
+        <v>443.74299</v>
       </c>
       <c r="O13">
-        <v>0.2365624140139416</v>
+        <v>0.2406993279341593</v>
       </c>
       <c r="P13">
-        <v>0.2365624140139416</v>
+        <v>0.2650317656414439</v>
       </c>
       <c r="Q13">
-        <v>344.5904560795196</v>
+        <v>387.5506811664366</v>
       </c>
       <c r="R13">
-        <v>344.5904560795196</v>
+        <v>3487.95613049793</v>
       </c>
       <c r="S13">
-        <v>0.00621777909755495</v>
+        <v>0.006148081115754219</v>
       </c>
       <c r="T13">
-        <v>0.00621777909755495</v>
+        <v>0.007887706968077944</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,52 +1278,52 @@
         <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>2.48643395509596</v>
+        <v>2.620102333333334</v>
       </c>
       <c r="H14">
-        <v>2.48643395509596</v>
+        <v>7.860307000000001</v>
       </c>
       <c r="I14">
-        <v>0.02628388420651013</v>
+        <v>0.02554257699230452</v>
       </c>
       <c r="J14">
-        <v>0.02628388420651013</v>
+        <v>0.0297613644499847</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>71.29989178220509</v>
+        <v>74.27261733333333</v>
       </c>
       <c r="N14">
-        <v>71.29989178220509</v>
+        <v>222.817852</v>
       </c>
       <c r="O14">
-        <v>0.1217049653590392</v>
+        <v>0.1208629960061633</v>
       </c>
       <c r="P14">
-        <v>0.1217049653590392</v>
+        <v>0.1330811078998542</v>
       </c>
       <c r="Q14">
-        <v>177.2824719219421</v>
+        <v>194.6018579778404</v>
       </c>
       <c r="R14">
-        <v>177.2824719219421</v>
+        <v>1751.416721800564</v>
       </c>
       <c r="S14">
-        <v>0.003198879216854313</v>
+        <v>0.003087152381008022</v>
       </c>
       <c r="T14">
-        <v>0.003198879216854313</v>
+        <v>0.003960675353615299</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,52 +1340,52 @@
         <v>23</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>2.48643395509596</v>
+        <v>2.620102333333334</v>
       </c>
       <c r="H15">
-        <v>2.48643395509596</v>
+        <v>7.860307000000001</v>
       </c>
       <c r="I15">
-        <v>0.02628388420651013</v>
+        <v>0.02554257699230452</v>
       </c>
       <c r="J15">
-        <v>0.02628388420651013</v>
+        <v>0.0297613644499847</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>84.8268215520668</v>
+        <v>84.85695366666668</v>
       </c>
       <c r="N15">
-        <v>84.8268215520668</v>
+        <v>254.570861</v>
       </c>
       <c r="O15">
-        <v>0.1447946851034113</v>
+        <v>0.138086767645209</v>
       </c>
       <c r="P15">
-        <v>0.1447946851034113</v>
+        <v>0.1520460408212704</v>
       </c>
       <c r="Q15">
-        <v>210.9162894099247</v>
+        <v>222.333902301592</v>
       </c>
       <c r="R15">
-        <v>210.9162894099247</v>
+        <v>2001.005120714327</v>
       </c>
       <c r="S15">
-        <v>0.00380576673697616</v>
+        <v>0.003527091894196217</v>
       </c>
       <c r="T15">
-        <v>0.00380576673697616</v>
+        <v>0.004525097634059081</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,52 +1402,52 @@
         <v>24</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>2.48643395509596</v>
+        <v>2.620102333333334</v>
       </c>
       <c r="H16">
-        <v>2.48643395509596</v>
+        <v>7.860307000000001</v>
       </c>
       <c r="I16">
-        <v>0.02628388420651013</v>
+        <v>0.02554257699230452</v>
       </c>
       <c r="J16">
-        <v>0.02628388420651013</v>
+        <v>0.0297613644499847</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>167.384032901926</v>
+        <v>169.2560955</v>
       </c>
       <c r="N16">
-        <v>167.384032901926</v>
+        <v>338.512191</v>
       </c>
       <c r="O16">
-        <v>0.2857152713248502</v>
+        <v>0.275428543235871</v>
       </c>
       <c r="P16">
-        <v>0.2857152713248502</v>
+        <v>0.2021811852664618</v>
       </c>
       <c r="Q16">
-        <v>416.1893429482482</v>
+        <v>443.4682907504396</v>
       </c>
       <c r="R16">
-        <v>416.1893429482482</v>
+        <v>2660.809744502637</v>
       </c>
       <c r="S16">
-        <v>0.007509707107533985</v>
+        <v>0.007035154771480511</v>
       </c>
       <c r="T16">
-        <v>0.007509707107533985</v>
+        <v>0.006017187939645046</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1464,52 +1464,52 @@
         <v>20</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>3.26410576739685</v>
+        <v>3.426588666666667</v>
       </c>
       <c r="H17">
-        <v>3.26410576739685</v>
+        <v>10.279766</v>
       </c>
       <c r="I17">
-        <v>0.0345045875247266</v>
+        <v>0.03340476580849505</v>
       </c>
       <c r="J17">
-        <v>0.0345045875247266</v>
+        <v>0.03892212637325252</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>123.743127939701</v>
+        <v>138.2190853333333</v>
       </c>
       <c r="N17">
-        <v>123.743127939701</v>
+        <v>414.657256</v>
       </c>
       <c r="O17">
-        <v>0.2112226641987577</v>
+        <v>0.2249223651785973</v>
       </c>
       <c r="P17">
-        <v>0.2112226641987577</v>
+        <v>0.2476599003709697</v>
       </c>
       <c r="Q17">
-        <v>403.9106575837043</v>
+        <v>473.6199513202329</v>
       </c>
       <c r="R17">
-        <v>403.9106575837043</v>
+        <v>4262.579561882097</v>
       </c>
       <c r="S17">
-        <v>0.00728815090405197</v>
+        <v>0.007513478933883847</v>
       </c>
       <c r="T17">
-        <v>0.00728815090405197</v>
+        <v>0.009639449939826012</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1526,52 +1526,52 @@
         <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>3.26410576739685</v>
+        <v>3.426588666666667</v>
       </c>
       <c r="H18">
-        <v>3.26410576739685</v>
+        <v>10.279766</v>
       </c>
       <c r="I18">
-        <v>0.0345045875247266</v>
+        <v>0.03340476580849505</v>
       </c>
       <c r="J18">
-        <v>0.0345045875247266</v>
+        <v>0.03892212637325252</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>138.588220038292</v>
+        <v>147.91433</v>
       </c>
       <c r="N18">
-        <v>138.588220038292</v>
+        <v>443.74299</v>
       </c>
       <c r="O18">
-        <v>0.2365624140139416</v>
+        <v>0.2406993279341593</v>
       </c>
       <c r="P18">
-        <v>0.2365624140139416</v>
+        <v>0.2650317656414439</v>
       </c>
       <c r="Q18">
-        <v>452.3666083202526</v>
+        <v>506.8415668155933</v>
       </c>
       <c r="R18">
-        <v>452.3666083202526</v>
+        <v>4561.574101340339</v>
       </c>
       <c r="S18">
-        <v>0.008162488519404659</v>
+        <v>0.008040504679902744</v>
       </c>
       <c r="T18">
-        <v>0.008162488519404659</v>
+        <v>0.01031559987522252</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1588,52 +1588,52 @@
         <v>22</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>3.26410576739685</v>
+        <v>3.426588666666667</v>
       </c>
       <c r="H19">
-        <v>3.26410576739685</v>
+        <v>10.279766</v>
       </c>
       <c r="I19">
-        <v>0.0345045875247266</v>
+        <v>0.03340476580849505</v>
       </c>
       <c r="J19">
-        <v>0.0345045875247266</v>
+        <v>0.03892212637325252</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>71.29989178220509</v>
+        <v>74.27261733333333</v>
       </c>
       <c r="N19">
-        <v>71.29989178220509</v>
+        <v>222.817852</v>
       </c>
       <c r="O19">
-        <v>0.1217049653590392</v>
+        <v>0.1208629960061633</v>
       </c>
       <c r="P19">
-        <v>0.1217049653590392</v>
+        <v>0.1330811078998542</v>
       </c>
       <c r="Q19">
-        <v>232.7303879810669</v>
+        <v>254.5017087980702</v>
       </c>
       <c r="R19">
-        <v>232.7303879810669</v>
+        <v>2290.515379182632</v>
       </c>
       <c r="S19">
-        <v>0.004199379629424788</v>
+        <v>0.004037400076498959</v>
       </c>
       <c r="T19">
-        <v>0.004199379629424788</v>
+        <v>0.005179799699570579</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1650,52 +1650,52 @@
         <v>23</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>3.26410576739685</v>
+        <v>3.426588666666667</v>
       </c>
       <c r="H20">
-        <v>3.26410576739685</v>
+        <v>10.279766</v>
       </c>
       <c r="I20">
-        <v>0.0345045875247266</v>
+        <v>0.03340476580849505</v>
       </c>
       <c r="J20">
-        <v>0.0345045875247266</v>
+        <v>0.03892212637325252</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>84.8268215520668</v>
+        <v>84.85695366666668</v>
       </c>
       <c r="N20">
-        <v>84.8268215520668</v>
+        <v>254.570861</v>
       </c>
       <c r="O20">
-        <v>0.1447946851034113</v>
+        <v>0.138086767645209</v>
       </c>
       <c r="P20">
-        <v>0.1447946851034113</v>
+        <v>0.1520460408212704</v>
       </c>
       <c r="Q20">
-        <v>276.8837174580447</v>
+        <v>290.7698757220585</v>
       </c>
       <c r="R20">
-        <v>276.8837174580447</v>
+        <v>2616.928881498527</v>
       </c>
       <c r="S20">
-        <v>0.004996080885265883</v>
+        <v>0.004612756134440279</v>
       </c>
       <c r="T20">
-        <v>0.004996080885265883</v>
+        <v>0.005917955215398199</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1712,52 +1712,52 @@
         <v>24</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>3.26410576739685</v>
+        <v>3.426588666666667</v>
       </c>
       <c r="H21">
-        <v>3.26410576739685</v>
+        <v>10.279766</v>
       </c>
       <c r="I21">
-        <v>0.0345045875247266</v>
+        <v>0.03340476580849505</v>
       </c>
       <c r="J21">
-        <v>0.0345045875247266</v>
+        <v>0.03892212637325252</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>167.384032901926</v>
+        <v>169.2560955</v>
       </c>
       <c r="N21">
-        <v>167.384032901926</v>
+        <v>338.512191</v>
       </c>
       <c r="O21">
-        <v>0.2857152713248502</v>
+        <v>0.275428543235871</v>
       </c>
       <c r="P21">
-        <v>0.2857152713248502</v>
+        <v>0.2021811852664618</v>
       </c>
       <c r="Q21">
-        <v>546.3591871653207</v>
+        <v>579.9710186045511</v>
       </c>
       <c r="R21">
-        <v>546.3591871653207</v>
+        <v>3479.826111627307</v>
       </c>
       <c r="S21">
-        <v>0.009858487586579302</v>
+        <v>0.009200625983769225</v>
       </c>
       <c r="T21">
-        <v>0.009858487586579302</v>
+        <v>0.007869321643235207</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1774,52 +1774,52 @@
         <v>20</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>40.879956774633</v>
+        <v>43.622405</v>
       </c>
       <c r="H22">
-        <v>40.879956774633</v>
+        <v>87.24481</v>
       </c>
       <c r="I22">
-        <v>0.4321385846704</v>
+        <v>0.4252614961357069</v>
       </c>
       <c r="J22">
-        <v>0.4321385846704</v>
+        <v>0.3303337371911389</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>123.743127939701</v>
+        <v>138.2190853333333</v>
       </c>
       <c r="N22">
-        <v>123.743127939701</v>
+        <v>414.657256</v>
       </c>
       <c r="O22">
-        <v>0.2112226641987577</v>
+        <v>0.2249223651785973</v>
       </c>
       <c r="P22">
-        <v>0.2112226641987577</v>
+        <v>0.2476599003709697</v>
       </c>
       <c r="Q22">
-        <v>5058.613721332858</v>
+        <v>6029.448919140227</v>
       </c>
       <c r="R22">
-        <v>5058.613721332858</v>
+        <v>36176.69351484136</v>
       </c>
       <c r="S22">
-        <v>0.0912774631571623</v>
+        <v>0.09565082153023212</v>
       </c>
       <c r="T22">
-        <v>0.0912774631571623</v>
+        <v>0.08181042044192756</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1836,52 +1836,52 @@
         <v>21</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>40.879956774633</v>
+        <v>43.622405</v>
       </c>
       <c r="H23">
-        <v>40.879956774633</v>
+        <v>87.24481</v>
       </c>
       <c r="I23">
-        <v>0.4321385846704</v>
+        <v>0.4252614961357069</v>
       </c>
       <c r="J23">
-        <v>0.4321385846704</v>
+        <v>0.3303337371911389</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>138.588220038292</v>
+        <v>147.91433</v>
       </c>
       <c r="N23">
-        <v>138.588220038292</v>
+        <v>443.74299</v>
       </c>
       <c r="O23">
-        <v>0.2365624140139416</v>
+        <v>0.2406993279341593</v>
       </c>
       <c r="P23">
-        <v>0.2365624140139416</v>
+        <v>0.2650317656414439</v>
       </c>
       <c r="Q23">
-        <v>5665.480444638704</v>
+        <v>6452.378808563649</v>
       </c>
       <c r="R23">
-        <v>5665.480444638704</v>
+        <v>38714.27285138189</v>
       </c>
       <c r="S23">
-        <v>0.1022277467781979</v>
+        <v>0.1023601563161397</v>
       </c>
       <c r="T23">
-        <v>0.1022277467781979</v>
+        <v>0.08754893361870424</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1898,52 +1898,52 @@
         <v>22</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>40.879956774633</v>
+        <v>43.622405</v>
       </c>
       <c r="H24">
-        <v>40.879956774633</v>
+        <v>87.24481</v>
       </c>
       <c r="I24">
-        <v>0.4321385846704</v>
+        <v>0.4252614961357069</v>
       </c>
       <c r="J24">
-        <v>0.4321385846704</v>
+        <v>0.3303337371911389</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>71.29989178220509</v>
+        <v>74.27261733333333</v>
       </c>
       <c r="N24">
-        <v>71.29989178220509</v>
+        <v>222.817852</v>
       </c>
       <c r="O24">
-        <v>0.1217049653590392</v>
+        <v>0.1208629960061633</v>
       </c>
       <c r="P24">
-        <v>0.1217049653590392</v>
+        <v>0.1330811078998542</v>
       </c>
       <c r="Q24">
-        <v>2914.736494092555</v>
+        <v>3239.950193724686</v>
       </c>
       <c r="R24">
-        <v>2914.736494092555</v>
+        <v>19439.70116234812</v>
       </c>
       <c r="S24">
-        <v>0.05259341147761527</v>
+        <v>0.05139837850902499</v>
       </c>
       <c r="T24">
-        <v>0.05259341147761527</v>
+        <v>0.04396117972209603</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1960,52 +1960,52 @@
         <v>23</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>40.879956774633</v>
+        <v>43.622405</v>
       </c>
       <c r="H25">
-        <v>40.879956774633</v>
+        <v>87.24481</v>
       </c>
       <c r="I25">
-        <v>0.4321385846704</v>
+        <v>0.4252614961357069</v>
       </c>
       <c r="J25">
-        <v>0.4321385846704</v>
+        <v>0.3303337371911389</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>84.8268215520668</v>
+        <v>84.85695366666668</v>
       </c>
       <c r="N25">
-        <v>84.8268215520668</v>
+        <v>254.570861</v>
       </c>
       <c r="O25">
-        <v>0.1447946851034113</v>
+        <v>0.138086767645209</v>
       </c>
       <c r="P25">
-        <v>0.1447946851034113</v>
+        <v>0.1520460408212704</v>
       </c>
       <c r="Q25">
-        <v>3467.716798377998</v>
+        <v>3701.664399913569</v>
       </c>
       <c r="R25">
-        <v>3467.716798377998</v>
+        <v>22209.98639948141</v>
       </c>
       <c r="S25">
-        <v>0.06257137028838441</v>
+        <v>0.0587229854053453</v>
       </c>
       <c r="T25">
-        <v>0.06257137028838441</v>
+        <v>0.05022593688960673</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,52 +2022,52 @@
         <v>24</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>40.879956774633</v>
+        <v>43.622405</v>
       </c>
       <c r="H26">
-        <v>40.879956774633</v>
+        <v>87.24481</v>
       </c>
       <c r="I26">
-        <v>0.4321385846704</v>
+        <v>0.4252614961357069</v>
       </c>
       <c r="J26">
-        <v>0.4321385846704</v>
+        <v>0.3303337371911389</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>167.384032901926</v>
+        <v>169.2560955</v>
       </c>
       <c r="N26">
-        <v>167.384032901926</v>
+        <v>338.512191</v>
       </c>
       <c r="O26">
-        <v>0.2857152713248502</v>
+        <v>0.275428543235871</v>
       </c>
       <c r="P26">
-        <v>0.2857152713248502</v>
+        <v>0.2021811852664618</v>
       </c>
       <c r="Q26">
-        <v>6842.652029794483</v>
+        <v>7383.357946619678</v>
       </c>
       <c r="R26">
-        <v>6842.652029794483</v>
+        <v>29533.43178647871</v>
       </c>
       <c r="S26">
-        <v>0.1234685929690401</v>
+        <v>0.1171291543749647</v>
       </c>
       <c r="T26">
-        <v>0.1234685929690401</v>
+        <v>0.06678726651880434</v>
       </c>
     </row>
   </sheetData>
